--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T09:35:07+00:00</t>
+    <t>2025-10-28T11:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:41:28+00:00</t>
+    <t>2025-10-28T14:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T14:16:13+00:00</t>
+    <t>2025-10-28T15:15:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:15:51+00:00</t>
+    <t>2025-10-29T10:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T10:18:40+00:00</t>
+    <t>2025-10-29T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T11:46:56+00:00</t>
+    <t>2025-10-29T12:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T12:55:39+00:00</t>
+    <t>2025-10-29T15:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:03:41+00:00</t>
+    <t>2025-10-30T13:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T13:09:51+00:00</t>
+    <t>2025-10-30T14:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:07:11+00:00</t>
+    <t>2025-10-30T14:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:16:37+00:00</t>
+    <t>2025-10-30T15:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="103">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T15:20:59+00:00</t>
+    <t>2025-10-30T16:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -301,6 +301,36 @@
   </si>
   <si>
     <t>Indique l’urgence de la note afin d’identifier la façon dont elle sera prise en charge.</t>
+  </si>
+  <si>
+    <t>NoteLiaison.Professionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Professionnel
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Professionnel</t>
+  </si>
+  <si>
+    <t>NoteLiaison.EntiteGeographique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/EntiteGeographique
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe EntiteGeographique</t>
+  </si>
+  <si>
+    <t>NoteLiaison.PersonnePriseCharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/PersonnePriseCharge
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe PersonnePriseCharge</t>
   </si>
 </sst>
 </file>
@@ -605,7 +635,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -614,8 +644,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="25.91015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.91015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -624,7 +654,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="8.3359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.66796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -645,7 +675,7 @@
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="25.91015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="27.390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1461,6 +1491,306 @@
         <v>71</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:36:55+00:00</t>
+    <t>2025-10-30T16:59:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:59:08+00:00</t>
+    <t>2025-11-03T11:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:12:25+00:00</t>
+    <t>2025-11-03T11:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:13:02+00:00</t>
+    <t>2025-11-03T13:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="112">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:49:33+00:00</t>
+    <t>2025-11-03T18:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -313,6 +313,26 @@
     <t>Lien vers la classe Professionnel</t>
   </si>
   <si>
+    <t>NoteLiaison.PersonnePriseCharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/PersonnePriseCharge
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe PersonnePriseCharge</t>
+  </si>
+  <si>
+    <t>NoteLiaison.Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Document
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Document</t>
+  </si>
+  <si>
     <t>NoteLiaison.EntiteGeographique</t>
   </si>
   <si>
@@ -323,14 +343,24 @@
     <t>Lien vers la classe EntiteGeographique</t>
   </si>
   <si>
-    <t>NoteLiaison.PersonnePriseCharge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/PersonnePriseCharge
+    <t>NoteLiaison.Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Contact
 </t>
   </si>
   <si>
-    <t>Lien vers la classe PersonnePriseCharge</t>
+    <t>Lien vers la classe Contact</t>
+  </si>
+  <si>
+    <t>NoteLiaison.DispositifMedical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/DispositifMedical
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe DispositifMedical</t>
   </si>
 </sst>
 </file>
@@ -635,7 +665,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1604,7 +1634,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>77</v>
@@ -1679,7 +1709,7 @@
         <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>77</v>
@@ -1704,10 +1734,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>71</v>
@@ -1779,15 +1809,315 @@
         <v>100</v>
       </c>
       <c r="AG11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="AH11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="G12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T18:48:51+00:00</t>
+    <t>2025-11-04T13:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T13:35:30+00:00</t>
+    <t>2025-11-04T14:33:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:33:37+00:00</t>
+    <t>2025-11-05T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T10:41:12+00:00</t>
+    <t>2025-11-07T16:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:48:20+00:00</t>
+    <t>2025-11-14T16:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:26:13+00:00</t>
+    <t>2025-11-14T16:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:42:42+00:00</t>
+    <t>2025-11-25T14:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:31:44+00:00</t>
+    <t>2025-11-25T14:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:47:14+00:00</t>
+    <t>2025-11-27T15:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:07:49+00:00</t>
+    <t>2025-11-27T17:02:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:02:40+00:00</t>
+    <t>2025-12-02T09:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T09:57:01+00:00</t>
+    <t>2025-12-02T14:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:07:59+00:00</t>
+    <t>2025-12-02T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:23:57+00:00</t>
+    <t>2025-12-02T14:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-NoteLiaison.xlsx
+++ b/ML/ig/StructureDefinition-NoteLiaison.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:53:18+00:00</t>
+    <t>2025-12-02T15:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
